--- a/Test_Suite/store_delete.xlsx
+++ b/Test_Suite/store_delete.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\WorkSpace3\HPEasyShell\Test_Suite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D4A715-ED97-40DF-875A-9C528B05B7EB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F95716-AC95-49A9-A354-A9D441133228}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29184" yWindow="384" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>CheckPoint</t>
   </si>
@@ -157,6 +157,9 @@
       </rPr>
       <t>)</t>
     </r>
+  </si>
+  <si>
+    <t>EasyShellTest().resetEasyshell()</t>
   </si>
 </sst>
 </file>
@@ -509,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -538,28 +541,28 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:4" customFormat="1">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="4" t="s">
+    <row r="4" spans="1:4">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B4" s="3" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -567,23 +570,23 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -591,6 +594,14 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Test_Suite/store_delete.xlsx
+++ b/Test_Suite/store_delete.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\WorkSpace3\HPEasyShell\Test_Suite\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\WorkSpace3\HPEasyShell\Test_Suite\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F95716-AC95-49A9-A354-A9D441133228}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D942826-9251-4545-B90F-CE2E3C6215BC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29184" yWindow="384" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29970" yWindow="1170" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -515,16 +515,16 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="69.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="69.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="1" customWidth="1"/>
-    <col min="4" max="6" width="9.109375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.109375" style="1"/>
+    <col min="4" max="6" width="9.140625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -549,7 +549,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" ht="15.75">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -557,9 +557,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" ht="15.75">
       <c r="A4" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>10</v>
@@ -581,7 +581,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" ht="15.75">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
